--- a/export/A0401_Void.xlsx
+++ b/export/A0401_Void.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waylin\mydjango\e_invoice\export_A0401\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waylin\mydjango\e_invoice\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F46EA3-DB60-49B7-AB40-56CFC6944E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E3E5A5-6DE7-47BC-B300-A519975097C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{1A089D22-320E-4964-B855-A6BC42008B4C}"/>
+    <workbookView xWindow="7485" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{1A089D22-320E-4964-B855-A6BC42008B4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,93 +36,307 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>發票號碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>發票開立時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>買方統編</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>買方名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>買方郵件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>總備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通關方式註記</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相關號碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷售額合計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>課稅別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稅率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>營業稅額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>總計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明細品名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明細數量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明細單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明細單價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明細小計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明細備註</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>明細相關號碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>賣方識別碼統編</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買方識別碼統編</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>發票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>折讓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(原)發票號碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>發票期別</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>作廢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>註銷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>作廢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>註銷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時間</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>作廢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>期別</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>作廢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>註銷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原因</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專案作廢核准文號</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,18 +353,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,12 +427,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,81 +766,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC53320-A554-4A46-A403-262F8F917374}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -574,17 +833,8 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -596,15 +846,6 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
